--- a/1. Portfolio/Risikomanagement/Risikoplanung.xlsx
+++ b/1. Portfolio/Risikomanagement/Risikoplanung.xlsx
@@ -5,11 +5,11 @@
   <workbookPr defaultThemeVersion="124226"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\the-l_000\Dropbox\Geteilte Bereiche\Only Hire\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Nico\Dropbox (Privat)\HFTL\SE-GitHub\ProjectManagement\1. Portfolio\Risikomanagement\"/>
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="0" yWindow="1200" windowWidth="19200" windowHeight="6630"/>
+    <workbookView xWindow="0" yWindow="1200" windowWidth="19200" windowHeight="6636"/>
   </bookViews>
   <sheets>
     <sheet name="Einordnung" sheetId="2" r:id="rId1"/>
@@ -17,10 +17,10 @@
     <sheet name="Risikomatrix" sheetId="3" r:id="rId3"/>
   </sheets>
   <definedNames>
-    <definedName name="_xlcn.WorksheetConnection_Risikoplanung.xlsxRisikoID" hidden="1">RisikoID[]</definedName>
-    <definedName name="_xlcn.WorksheetConnection_Risikoplanung.xlsxRisikouebersicht" hidden="1">Risikouebersicht[]</definedName>
+    <definedName name="_xlcn.WorksheetConnection_Risikoplanung.xlsxRisikoID1" hidden="1">RisikoID[]</definedName>
+    <definedName name="_xlcn.WorksheetConnection_Risikoplanung.xlsxRisikouebersicht1" hidden="1">Risikouebersicht[]</definedName>
   </definedNames>
-  <calcPr calcId="152511"/>
+  <calcPr calcId="162913"/>
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{FCE2AD5D-F65C-4FA6-A056-5C36A1767C68}">
       <x15:dataModel>
@@ -49,7 +49,7 @@
     <extLst>
       <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{DE250136-89BD-433C-8126-D09CA5730AF9}">
         <x15:connection id="RisikoID-2eab3d3c-255d-4a1b-aa4f-f2f9d2e92242">
-          <x15:rangePr sourceName="_xlcn.WorksheetConnection_Risikoplanung.xlsxRisikoID"/>
+          <x15:rangePr sourceName="_xlcn.WorksheetConnection_Risikoplanung.xlsxRisikoID1"/>
         </x15:connection>
       </ext>
     </extLst>
@@ -58,7 +58,7 @@
     <extLst>
       <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{DE250136-89BD-433C-8126-D09CA5730AF9}">
         <x15:connection id="Risikouebersicht-855ad3a4-13d3-4d1e-9f0e-ca193aa757ae">
-          <x15:rangePr sourceName="_xlcn.WorksheetConnection_Risikoplanung.xlsxRisikouebersicht"/>
+          <x15:rangePr sourceName="_xlcn.WorksheetConnection_Risikoplanung.xlsxRisikouebersicht1"/>
         </x15:connection>
       </ext>
     </extLst>
@@ -67,7 +67,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="142" uniqueCount="89">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="143" uniqueCount="90">
   <si>
     <t>RisikoID</t>
   </si>
@@ -345,15 +345,18 @@
   <si>
     <t>Stories falsch eingeschätzt</t>
   </si>
+  <si>
+    <t>Rechtsradikaler Content gelang auf unsere Plattfrom</t>
+  </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
   <numFmts count="1">
     <numFmt numFmtId="164" formatCode="#,##0.00\ &quot;€&quot;"/>
   </numFmts>
-  <fonts count="14" x14ac:knownFonts="1">
+  <fonts count="14">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -756,7 +759,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="72">
+  <cellXfs count="74">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
@@ -963,6 +966,8 @@
     <xf numFmtId="0" fontId="2" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
+    <xf numFmtId="1" fontId="12" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" xfId="0" applyFont="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Standard" xfId="0" builtinId="0"/>
@@ -1298,7 +1303,7 @@
 </file>
 
 <file path=xl/charts/chart1.xml><?xml version="1.0" encoding="utf-8"?>
-<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
   <c:date1904 val="0"/>
   <c:lang val="de-DE"/>
   <c:roundedCorners val="0"/>
@@ -1343,7 +1348,6 @@
           </a:p>
         </c:rich>
       </c:tx>
-      <c:layout/>
       <c:overlay val="0"/>
       <c:spPr>
         <a:noFill/>
@@ -1487,6 +1491,11 @@
               </c:numCache>
             </c:numRef>
           </c:val>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000000-5DBD-45BC-A7FA-584E22A3B5BB}"/>
+            </c:ext>
+          </c:extLst>
         </c:ser>
         <c:dLbls>
           <c:showLegendKey val="0"/>
@@ -1613,6 +1622,11 @@
                     </c:numCache>
                   </c:numRef>
                 </c:val>
+                <c:extLst>
+                  <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+                    <c16:uniqueId val="{00000001-5DBD-45BC-A7FA-584E22A3B5BB}"/>
+                  </c:ext>
+                </c:extLst>
               </c15:ser>
             </c15:filteredBarSeries>
           </c:ext>
@@ -1733,7 +1747,6 @@
     </c:plotArea>
     <c:legend>
       <c:legendPos val="b"/>
-      <c:layout/>
       <c:overlay val="0"/>
       <c:spPr>
         <a:noFill/>
@@ -1811,7 +1824,7 @@
 </file>
 
 <file path=xl/charts/chart2.xml><?xml version="1.0" encoding="utf-8"?>
-<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
   <c:date1904 val="0"/>
   <c:lang val="de-DE"/>
   <c:roundedCorners val="0"/>
@@ -1856,7 +1869,6 @@
           </a:p>
         </c:rich>
       </c:tx>
-      <c:layout/>
       <c:overlay val="0"/>
       <c:spPr>
         <a:noFill/>
@@ -2090,6 +2102,11 @@
               </c:numCache>
             </c:numRef>
           </c:val>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000000-B09F-4DE4-88FB-9E566F6ABDDA}"/>
+            </c:ext>
+          </c:extLst>
         </c:ser>
         <c:dLbls>
           <c:showLegendKey val="0"/>
@@ -2219,7 +2236,6 @@
     </c:plotArea>
     <c:legend>
       <c:legendPos val="b"/>
-      <c:layout/>
       <c:overlay val="0"/>
       <c:spPr>
         <a:noFill/>
@@ -3434,8 +3450,8 @@
 </file>
 
 <file path=xl/tables/table1.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="2" name="RisikoID" displayName="RisikoID" ref="A3:C21" totalsRowShown="0" headerRowDxfId="16">
-  <autoFilter ref="A3:C21"/>
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="2" name="RisikoID" displayName="RisikoID" ref="A3:C22" totalsRowShown="0" headerRowDxfId="16">
+  <autoFilter ref="A3:C22"/>
   <tableColumns count="3">
     <tableColumn id="1" name="RisikoID" dataDxfId="15">
       <calculatedColumnFormula>ROW()-3</calculatedColumnFormula>
@@ -3477,7 +3493,7 @@
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
-<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office Theme">
+<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office">
   <a:themeElements>
     <a:clrScheme name="Office">
       <a:dk1>
@@ -3763,27 +3779,27 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:F21"/>
+  <dimension ref="A1:F22"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="B21" sqref="B21"/>
+      <selection activeCell="B25" sqref="B25"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="11.42578125" defaultRowHeight="11.25" x14ac:dyDescent="0.2"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="11.44140625" defaultRowHeight="10.199999999999999"/>
   <cols>
-    <col min="1" max="1" width="11.42578125" style="27"/>
-    <col min="2" max="2" width="49.85546875" style="27" bestFit="1" customWidth="1"/>
-    <col min="3" max="5" width="11.42578125" style="27"/>
-    <col min="6" max="6" width="43.42578125" style="27" customWidth="1"/>
-    <col min="7" max="16384" width="11.42578125" style="27"/>
+    <col min="1" max="1" width="11.44140625" style="27"/>
+    <col min="2" max="2" width="49.88671875" style="27" bestFit="1" customWidth="1"/>
+    <col min="3" max="5" width="11.44140625" style="27"/>
+    <col min="6" max="6" width="43.44140625" style="27" customWidth="1"/>
+    <col min="7" max="16384" width="11.44140625" style="27"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:6" ht="78.75" x14ac:dyDescent="0.2">
+    <row r="1" spans="1:6" ht="71.400000000000006">
       <c r="B1" s="28" t="s">
         <v>7</v>
       </c>
     </row>
-    <row r="3" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="3" spans="1:6">
       <c r="A3" s="27" t="s">
         <v>0</v>
       </c>
@@ -3794,7 +3810,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="4" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="4" spans="1:6">
       <c r="A4" s="62">
         <f t="shared" ref="A4:A19" si="0">ROW()-3</f>
         <v>1</v>
@@ -3806,7 +3822,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="5" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="5" spans="1:6">
       <c r="A5" s="50">
         <f t="shared" si="0"/>
         <v>2</v>
@@ -3818,7 +3834,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="6" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="6" spans="1:6">
       <c r="A6" s="50">
         <f t="shared" si="0"/>
         <v>3</v>
@@ -3834,7 +3850,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="7" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="7" spans="1:6">
       <c r="A7" s="50">
         <f t="shared" si="0"/>
         <v>4</v>
@@ -3846,7 +3862,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="8" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="8" spans="1:6">
       <c r="A8" s="50">
         <f t="shared" si="0"/>
         <v>5</v>
@@ -3858,7 +3874,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="9" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="9" spans="1:6">
       <c r="A9" s="50">
         <f t="shared" si="0"/>
         <v>6</v>
@@ -3870,7 +3886,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="10" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="10" spans="1:6">
       <c r="A10" s="50">
         <f t="shared" si="0"/>
         <v>7</v>
@@ -3882,7 +3898,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="11" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="11" spans="1:6">
       <c r="A11" s="50">
         <f t="shared" si="0"/>
         <v>8</v>
@@ -3894,7 +3910,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="12" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="12" spans="1:6">
       <c r="A12" s="50">
         <f t="shared" si="0"/>
         <v>9</v>
@@ -3906,7 +3922,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="13" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="13" spans="1:6">
       <c r="A13" s="50">
         <f t="shared" si="0"/>
         <v>10</v>
@@ -3918,7 +3934,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="14" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="14" spans="1:6">
       <c r="A14" s="50">
         <f t="shared" si="0"/>
         <v>11</v>
@@ -3930,7 +3946,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="15" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="15" spans="1:6">
       <c r="A15" s="50">
         <f t="shared" si="0"/>
         <v>12</v>
@@ -3942,7 +3958,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="16" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="16" spans="1:6">
       <c r="A16" s="50">
         <f t="shared" si="0"/>
         <v>13</v>
@@ -3954,7 +3970,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="17" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="17" spans="1:3">
       <c r="A17" s="50">
         <f t="shared" si="0"/>
         <v>14</v>
@@ -3966,7 +3982,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="18" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="18" spans="1:3">
       <c r="A18" s="50">
         <f t="shared" si="0"/>
         <v>15</v>
@@ -3978,7 +3994,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="19" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="19" spans="1:3">
       <c r="A19" s="50">
         <f t="shared" si="0"/>
         <v>16</v>
@@ -3990,7 +4006,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="20" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="20" spans="1:3">
       <c r="A20" s="50">
         <f>ROW()-3</f>
         <v>17</v>
@@ -4002,7 +4018,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="21" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="21" spans="1:3">
       <c r="A21" s="50">
         <f>ROW()-3</f>
         <v>18</v>
@@ -4013,13 +4029,22 @@
       <c r="C21" s="27">
         <v>5</v>
       </c>
+    </row>
+    <row r="22" spans="1:3">
+      <c r="A22" s="72">
+        <v>19</v>
+      </c>
+      <c r="B22" s="73" t="s">
+        <v>89</v>
+      </c>
+      <c r="C22" s="73"/>
     </row>
   </sheetData>
   <dataValidations count="2">
     <dataValidation type="custom" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="D2:D17">
       <formula1>"1;2;3;4;5"</formula1>
     </dataValidation>
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="C4:C21">
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="C4:C22">
       <formula1>"1,2,3,4,5"</formula1>
     </dataValidation>
   </dataValidations>
@@ -4035,27 +4060,27 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:L21"/>
   <sheetViews>
-    <sheetView topLeftCell="A16" workbookViewId="0">
-      <selection activeCell="C21" sqref="C21"/>
+    <sheetView topLeftCell="A14" workbookViewId="0">
+      <selection activeCell="A22" sqref="A22"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="11.42578125" defaultRowHeight="11.25" x14ac:dyDescent="0.2"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="11.44140625" defaultRowHeight="10.199999999999999"/>
   <cols>
-    <col min="1" max="1" width="9.85546875" style="45" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="33.7109375" style="45" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="30.140625" style="37" customWidth="1"/>
+    <col min="1" max="1" width="9.88671875" style="45" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="33.6640625" style="45" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="30.109375" style="37" customWidth="1"/>
     <col min="4" max="4" width="31" style="37" customWidth="1"/>
-    <col min="5" max="5" width="9.28515625" style="44" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="16.7109375" style="29" customWidth="1"/>
-    <col min="7" max="7" width="20.42578125" style="43" bestFit="1" customWidth="1"/>
-    <col min="8" max="8" width="30.5703125" style="37" customWidth="1"/>
-    <col min="9" max="9" width="22.140625" style="40" customWidth="1"/>
+    <col min="5" max="5" width="9.33203125" style="44" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="16.6640625" style="29" customWidth="1"/>
+    <col min="7" max="7" width="20.44140625" style="43" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="30.5546875" style="37" customWidth="1"/>
+    <col min="9" max="9" width="22.109375" style="40" customWidth="1"/>
     <col min="10" max="10" width="9" style="41" customWidth="1"/>
-    <col min="11" max="11" width="16.42578125" style="42" bestFit="1" customWidth="1"/>
-    <col min="12" max="16384" width="11.42578125" style="36"/>
+    <col min="11" max="11" width="16.44140625" style="42" bestFit="1" customWidth="1"/>
+    <col min="12" max="16384" width="11.44140625" style="36"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:12" s="47" customFormat="1" ht="39.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:12" s="47" customFormat="1" ht="39.75" customHeight="1">
       <c r="A1" s="63" t="s">
         <v>17</v>
       </c>
@@ -4071,7 +4096,7 @@
       <c r="K1" s="64"/>
       <c r="L1" s="46"/>
     </row>
-    <row r="2" spans="1:12" s="47" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:12" s="47" customFormat="1" ht="15.75" customHeight="1">
       <c r="A2" s="65"/>
       <c r="B2" s="65"/>
       <c r="C2" s="65"/>
@@ -4085,7 +4110,7 @@
       <c r="K2" s="49"/>
       <c r="L2" s="46"/>
     </row>
-    <row r="3" spans="1:12" ht="12" thickBot="1" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:12" ht="10.8" thickBot="1">
       <c r="A3" s="58" t="s">
         <v>0</v>
       </c>
@@ -4120,7 +4145,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="4" spans="1:12" ht="33.75" x14ac:dyDescent="0.2">
+    <row r="4" spans="1:12" ht="30.6">
       <c r="A4" s="57">
         <f>RisikoID[RisikoID]</f>
         <v>1</v>
@@ -4156,7 +4181,7 @@
         <v>41</v>
       </c>
     </row>
-    <row r="5" spans="1:12" ht="33.75" x14ac:dyDescent="0.2">
+    <row r="5" spans="1:12" ht="30.6">
       <c r="A5" s="56">
         <f>RisikoID[RisikoID]</f>
         <v>2</v>
@@ -4192,7 +4217,7 @@
         <v>41</v>
       </c>
     </row>
-    <row r="6" spans="1:12" ht="33.75" x14ac:dyDescent="0.2">
+    <row r="6" spans="1:12" ht="30.6">
       <c r="A6" s="56">
         <f>RisikoID[RisikoID]</f>
         <v>3</v>
@@ -4228,7 +4253,7 @@
         <v>41</v>
       </c>
     </row>
-    <row r="7" spans="1:12" ht="90" x14ac:dyDescent="0.2">
+    <row r="7" spans="1:12" ht="61.2">
       <c r="A7" s="56">
         <f>RisikoID[RisikoID]</f>
         <v>4</v>
@@ -4264,7 +4289,7 @@
         <v>41</v>
       </c>
     </row>
-    <row r="8" spans="1:12" ht="33.75" x14ac:dyDescent="0.2">
+    <row r="8" spans="1:12" ht="30.6">
       <c r="A8" s="56">
         <f>RisikoID[RisikoID]</f>
         <v>5</v>
@@ -4298,7 +4323,7 @@
         <v>41</v>
       </c>
     </row>
-    <row r="9" spans="1:12" ht="56.25" x14ac:dyDescent="0.2">
+    <row r="9" spans="1:12" ht="40.799999999999997">
       <c r="A9" s="56">
         <f>RisikoID[RisikoID]</f>
         <v>6</v>
@@ -4332,7 +4357,7 @@
         <v>41</v>
       </c>
     </row>
-    <row r="10" spans="1:12" ht="45" x14ac:dyDescent="0.2">
+    <row r="10" spans="1:12" ht="30.6">
       <c r="A10" s="56">
         <f>RisikoID[RisikoID]</f>
         <v>7</v>
@@ -4366,7 +4391,7 @@
         <v>41</v>
       </c>
     </row>
-    <row r="11" spans="1:12" ht="22.5" x14ac:dyDescent="0.2">
+    <row r="11" spans="1:12" ht="20.399999999999999">
       <c r="A11" s="56">
         <f>RisikoID[RisikoID]</f>
         <v>8</v>
@@ -4400,7 +4425,7 @@
         <v>41</v>
       </c>
     </row>
-    <row r="12" spans="1:12" ht="33.75" x14ac:dyDescent="0.2">
+    <row r="12" spans="1:12" ht="30.6">
       <c r="A12" s="56">
         <f>RisikoID[RisikoID]</f>
         <v>9</v>
@@ -4434,7 +4459,7 @@
         <v>41</v>
       </c>
     </row>
-    <row r="13" spans="1:12" ht="45" x14ac:dyDescent="0.2">
+    <row r="13" spans="1:12" ht="40.799999999999997">
       <c r="A13" s="56">
         <f>RisikoID[RisikoID]</f>
         <v>10</v>
@@ -4470,7 +4495,7 @@
         <v>41</v>
       </c>
     </row>
-    <row r="14" spans="1:12" ht="22.5" x14ac:dyDescent="0.2">
+    <row r="14" spans="1:12" ht="20.399999999999999">
       <c r="A14" s="56">
         <f>RisikoID[RisikoID]</f>
         <v>11</v>
@@ -4506,7 +4531,7 @@
         <v>41</v>
       </c>
     </row>
-    <row r="15" spans="1:12" ht="56.25" x14ac:dyDescent="0.2">
+    <row r="15" spans="1:12" ht="51">
       <c r="A15" s="56">
         <f>RisikoID[RisikoID]</f>
         <v>12</v>
@@ -4540,7 +4565,7 @@
         <v>41</v>
       </c>
     </row>
-    <row r="16" spans="1:12" ht="45" x14ac:dyDescent="0.2">
+    <row r="16" spans="1:12" ht="40.799999999999997">
       <c r="A16" s="56">
         <f>RisikoID[RisikoID]</f>
         <v>13</v>
@@ -4576,7 +4601,7 @@
         <v>41</v>
       </c>
     </row>
-    <row r="17" spans="1:11" ht="45" x14ac:dyDescent="0.2">
+    <row r="17" spans="1:11" ht="40.799999999999997">
       <c r="A17" s="56">
         <f>RisikoID[RisikoID]</f>
         <v>14</v>
@@ -4612,7 +4637,7 @@
         <v>41</v>
       </c>
     </row>
-    <row r="18" spans="1:11" ht="101.25" x14ac:dyDescent="0.2">
+    <row r="18" spans="1:11" ht="81.599999999999994">
       <c r="A18" s="56">
         <f>RisikoID[RisikoID]</f>
         <v>15</v>
@@ -4648,7 +4673,7 @@
         <v>41</v>
       </c>
     </row>
-    <row r="19" spans="1:11" ht="33.75" x14ac:dyDescent="0.2">
+    <row r="19" spans="1:11" ht="30.6">
       <c r="A19" s="56">
         <f>RisikoID[RisikoID]</f>
         <v>16</v>
@@ -4684,7 +4709,7 @@
         <v>41</v>
       </c>
     </row>
-    <row r="20" spans="1:11" ht="56.25" x14ac:dyDescent="0.2">
+    <row r="20" spans="1:11" ht="51">
       <c r="A20" s="57">
         <f>RisikoID[RisikoID]</f>
         <v>17</v>
@@ -4717,7 +4742,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="21" spans="1:11" ht="22.5" x14ac:dyDescent="0.2">
+    <row r="21" spans="1:11" ht="20.399999999999999">
       <c r="A21" s="57">
         <f>RisikoID[RisikoID]</f>
         <v>18</v>
@@ -4804,21 +4829,21 @@
       <selection activeCell="I19" sqref="I19"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="11.42578125" defaultRowHeight="11.25" x14ac:dyDescent="0.2"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="11.44140625" defaultRowHeight="10.199999999999999"/>
   <cols>
-    <col min="1" max="1" width="17.5703125" style="2" customWidth="1"/>
-    <col min="2" max="2" width="15.42578125" style="1" customWidth="1"/>
-    <col min="3" max="3" width="3.42578125" style="1" customWidth="1"/>
-    <col min="4" max="5" width="11.42578125" style="1"/>
-    <col min="6" max="6" width="15.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="7" max="10" width="11.42578125" style="1"/>
-    <col min="11" max="11" width="6.5703125" style="1" customWidth="1"/>
-    <col min="12" max="12" width="11.28515625" style="2" customWidth="1"/>
-    <col min="13" max="17" width="4.7109375" style="2" customWidth="1"/>
-    <col min="18" max="16384" width="11.42578125" style="1"/>
+    <col min="1" max="1" width="17.5546875" style="2" customWidth="1"/>
+    <col min="2" max="2" width="15.44140625" style="1" customWidth="1"/>
+    <col min="3" max="3" width="3.44140625" style="1" customWidth="1"/>
+    <col min="4" max="5" width="11.44140625" style="1"/>
+    <col min="6" max="6" width="15.88671875" style="1" bestFit="1" customWidth="1"/>
+    <col min="7" max="10" width="11.44140625" style="1"/>
+    <col min="11" max="11" width="6.5546875" style="1" customWidth="1"/>
+    <col min="12" max="12" width="11.33203125" style="2" customWidth="1"/>
+    <col min="13" max="17" width="4.6640625" style="2" customWidth="1"/>
+    <col min="18" max="16384" width="11.44140625" style="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:17" ht="15" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:17" ht="14.4">
       <c r="A1" s="71" t="s">
         <v>8</v>
       </c>
@@ -4835,7 +4860,7 @@
       <c r="L1" s="19"/>
       <c r="M1" s="19"/>
     </row>
-    <row r="2" spans="1:17" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:17" ht="15" thickBot="1">
       <c r="A2" s="69" t="s">
         <v>15</v>
       </c>
@@ -4853,7 +4878,7 @@
       <c r="K2"/>
       <c r="L2" s="21"/>
     </row>
-    <row r="3" spans="1:17" x14ac:dyDescent="0.2">
+    <row r="3" spans="1:17">
       <c r="A3" s="12">
         <v>0.05</v>
       </c>
@@ -4880,7 +4905,7 @@
       <c r="L3" s="22"/>
       <c r="M3" s="20"/>
     </row>
-    <row r="4" spans="1:17" x14ac:dyDescent="0.2">
+    <row r="4" spans="1:17">
       <c r="A4" s="13">
         <v>0.1</v>
       </c>
@@ -4911,7 +4936,7 @@
       <c r="P4" s="26"/>
       <c r="Q4" s="26"/>
     </row>
-    <row r="5" spans="1:17" x14ac:dyDescent="0.2">
+    <row r="5" spans="1:17">
       <c r="A5" s="13">
         <v>0.15</v>
       </c>
@@ -4942,7 +4967,7 @@
       <c r="P5" s="26"/>
       <c r="Q5" s="26"/>
     </row>
-    <row r="6" spans="1:17" x14ac:dyDescent="0.2">
+    <row r="6" spans="1:17">
       <c r="A6" s="13">
         <v>0.2</v>
       </c>
@@ -4973,7 +4998,7 @@
       <c r="P6" s="26"/>
       <c r="Q6" s="26"/>
     </row>
-    <row r="7" spans="1:17" x14ac:dyDescent="0.2">
+    <row r="7" spans="1:17">
       <c r="A7" s="13">
         <v>0.25</v>
       </c>
@@ -5004,7 +5029,7 @@
       <c r="P7" s="26"/>
       <c r="Q7" s="26"/>
     </row>
-    <row r="8" spans="1:17" x14ac:dyDescent="0.2">
+    <row r="8" spans="1:17">
       <c r="A8" s="13">
         <v>0.3</v>
       </c>
@@ -5025,7 +5050,7 @@
       <c r="P8" s="26"/>
       <c r="Q8" s="26"/>
     </row>
-    <row r="9" spans="1:17" x14ac:dyDescent="0.2">
+    <row r="9" spans="1:17">
       <c r="A9" s="13">
         <v>0.35</v>
       </c>
@@ -5046,7 +5071,7 @@
       <c r="P9" s="26"/>
       <c r="Q9" s="26"/>
     </row>
-    <row r="10" spans="1:17" x14ac:dyDescent="0.2">
+    <row r="10" spans="1:17">
       <c r="A10" s="13">
         <v>0.4</v>
       </c>
@@ -5067,7 +5092,7 @@
       <c r="P10" s="26"/>
       <c r="Q10" s="26"/>
     </row>
-    <row r="11" spans="1:17" x14ac:dyDescent="0.2">
+    <row r="11" spans="1:17">
       <c r="A11" s="13">
         <v>0.45</v>
       </c>
@@ -5088,7 +5113,7 @@
       <c r="P11" s="26"/>
       <c r="Q11" s="26"/>
     </row>
-    <row r="12" spans="1:17" x14ac:dyDescent="0.2">
+    <row r="12" spans="1:17">
       <c r="A12" s="13">
         <v>0.5</v>
       </c>
@@ -5109,7 +5134,7 @@
       <c r="P12" s="26"/>
       <c r="Q12" s="26"/>
     </row>
-    <row r="13" spans="1:17" x14ac:dyDescent="0.2">
+    <row r="13" spans="1:17">
       <c r="A13" s="13">
         <v>0.55000000000000004</v>
       </c>
@@ -5130,7 +5155,7 @@
       <c r="P13" s="26"/>
       <c r="Q13" s="26"/>
     </row>
-    <row r="14" spans="1:17" x14ac:dyDescent="0.2">
+    <row r="14" spans="1:17">
       <c r="A14" s="13">
         <v>0.6</v>
       </c>
@@ -5151,7 +5176,7 @@
       <c r="P14" s="26"/>
       <c r="Q14" s="26"/>
     </row>
-    <row r="15" spans="1:17" x14ac:dyDescent="0.2">
+    <row r="15" spans="1:17">
       <c r="A15" s="13">
         <v>0.65</v>
       </c>
@@ -5172,7 +5197,7 @@
       <c r="P15" s="26"/>
       <c r="Q15" s="26"/>
     </row>
-    <row r="16" spans="1:17" x14ac:dyDescent="0.2">
+    <row r="16" spans="1:17">
       <c r="A16" s="13">
         <v>0.7</v>
       </c>
@@ -5193,7 +5218,7 @@
       <c r="P16" s="26"/>
       <c r="Q16" s="26"/>
     </row>
-    <row r="17" spans="1:17" x14ac:dyDescent="0.2">
+    <row r="17" spans="1:17">
       <c r="A17" s="13">
         <v>0.75</v>
       </c>
@@ -5214,7 +5239,7 @@
       <c r="P17" s="26"/>
       <c r="Q17" s="26"/>
     </row>
-    <row r="18" spans="1:17" x14ac:dyDescent="0.2">
+    <row r="18" spans="1:17">
       <c r="A18" s="13">
         <v>0.8</v>
       </c>
@@ -5235,7 +5260,7 @@
       <c r="P18" s="26"/>
       <c r="Q18" s="26"/>
     </row>
-    <row r="19" spans="1:17" x14ac:dyDescent="0.2">
+    <row r="19" spans="1:17">
       <c r="A19" s="13">
         <v>0.85</v>
       </c>
@@ -5256,7 +5281,7 @@
       <c r="P19" s="26"/>
       <c r="Q19" s="26"/>
     </row>
-    <row r="20" spans="1:17" x14ac:dyDescent="0.2">
+    <row r="20" spans="1:17">
       <c r="A20" s="13">
         <v>0.9</v>
       </c>
@@ -5277,7 +5302,7 @@
       <c r="P20" s="26"/>
       <c r="Q20" s="26"/>
     </row>
-    <row r="21" spans="1:17" x14ac:dyDescent="0.2">
+    <row r="21" spans="1:17">
       <c r="A21" s="13">
         <v>0.95</v>
       </c>
@@ -5298,7 +5323,7 @@
       <c r="P21" s="26"/>
       <c r="Q21" s="26"/>
     </row>
-    <row r="22" spans="1:17" x14ac:dyDescent="0.2">
+    <row r="22" spans="1:17">
       <c r="A22" s="14">
         <v>1</v>
       </c>
@@ -5319,7 +5344,7 @@
       <c r="P22" s="26"/>
       <c r="Q22" s="26"/>
     </row>
-    <row r="23" spans="1:17" x14ac:dyDescent="0.2">
+    <row r="23" spans="1:17">
       <c r="A23" s="23"/>
       <c r="B23" s="24"/>
       <c r="C23" s="24"/>
@@ -5338,7 +5363,7 @@
       <c r="P23" s="26"/>
       <c r="Q23" s="26"/>
     </row>
-    <row r="24" spans="1:17" x14ac:dyDescent="0.2">
+    <row r="24" spans="1:17">
       <c r="A24" s="23"/>
       <c r="B24" s="24"/>
       <c r="C24" s="24"/>
@@ -5357,7 +5382,7 @@
       <c r="P24" s="25"/>
       <c r="Q24" s="25"/>
     </row>
-    <row r="25" spans="1:17" x14ac:dyDescent="0.2">
+    <row r="25" spans="1:17">
       <c r="A25" s="23"/>
       <c r="B25" s="24"/>
       <c r="C25" s="24"/>
@@ -5370,7 +5395,7 @@
       <c r="J25" s="24"/>
       <c r="K25" s="24"/>
     </row>
-    <row r="26" spans="1:17" x14ac:dyDescent="0.2">
+    <row r="26" spans="1:17">
       <c r="A26" s="23"/>
       <c r="B26" s="24"/>
       <c r="C26" s="24"/>
@@ -5383,7 +5408,7 @@
       <c r="J26" s="24"/>
       <c r="K26" s="24"/>
     </row>
-    <row r="27" spans="1:17" x14ac:dyDescent="0.2">
+    <row r="27" spans="1:17">
       <c r="A27" s="23"/>
       <c r="B27" s="24"/>
       <c r="C27" s="24"/>
@@ -5396,7 +5421,7 @@
       <c r="J27" s="24"/>
       <c r="K27" s="24"/>
     </row>
-    <row r="28" spans="1:17" x14ac:dyDescent="0.2">
+    <row r="28" spans="1:17">
       <c r="A28" s="23"/>
       <c r="B28" s="24"/>
       <c r="C28" s="24"/>
@@ -5409,7 +5434,7 @@
       <c r="J28" s="24"/>
       <c r="K28" s="24"/>
     </row>
-    <row r="29" spans="1:17" x14ac:dyDescent="0.2">
+    <row r="29" spans="1:17">
       <c r="A29" s="23"/>
       <c r="B29" s="24"/>
       <c r="C29" s="24"/>
@@ -5422,7 +5447,7 @@
       <c r="J29" s="24"/>
       <c r="K29" s="24"/>
     </row>
-    <row r="30" spans="1:17" x14ac:dyDescent="0.2">
+    <row r="30" spans="1:17">
       <c r="A30" s="23"/>
       <c r="B30" s="24"/>
       <c r="C30" s="24"/>
@@ -5435,7 +5460,7 @@
       <c r="J30" s="24"/>
       <c r="K30" s="24"/>
     </row>
-    <row r="31" spans="1:17" x14ac:dyDescent="0.2">
+    <row r="31" spans="1:17">
       <c r="A31" s="23"/>
       <c r="B31" s="24"/>
       <c r="C31" s="24"/>
@@ -5448,7 +5473,7 @@
       <c r="J31" s="24"/>
       <c r="K31" s="24"/>
     </row>
-    <row r="32" spans="1:17" x14ac:dyDescent="0.2">
+    <row r="32" spans="1:17">
       <c r="A32" s="23"/>
       <c r="B32" s="24"/>
       <c r="C32" s="24"/>
@@ -5461,7 +5486,7 @@
       <c r="J32" s="24"/>
       <c r="K32" s="24"/>
     </row>
-    <row r="33" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="33" spans="1:11">
       <c r="A33" s="23"/>
       <c r="B33" s="24"/>
       <c r="C33" s="24"/>
@@ -5474,7 +5499,7 @@
       <c r="J33" s="24"/>
       <c r="K33" s="24"/>
     </row>
-    <row r="34" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="34" spans="1:11">
       <c r="A34" s="23"/>
       <c r="B34" s="24"/>
       <c r="C34" s="24"/>
@@ -5487,7 +5512,7 @@
       <c r="J34" s="24"/>
       <c r="K34" s="24"/>
     </row>
-    <row r="35" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="35" spans="1:11">
       <c r="A35" s="23"/>
       <c r="B35" s="24"/>
       <c r="C35" s="24"/>
@@ -5500,7 +5525,7 @@
       <c r="J35" s="24"/>
       <c r="K35" s="24"/>
     </row>
-    <row r="36" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="36" spans="1:11">
       <c r="A36" s="23"/>
       <c r="B36" s="24"/>
       <c r="C36" s="24"/>
@@ -5513,7 +5538,7 @@
       <c r="J36" s="24"/>
       <c r="K36" s="24"/>
     </row>
-    <row r="37" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="37" spans="1:11">
       <c r="A37" s="23"/>
       <c r="B37" s="24"/>
       <c r="C37" s="24"/>
@@ -5526,7 +5551,7 @@
       <c r="J37" s="24"/>
       <c r="K37" s="24"/>
     </row>
-    <row r="38" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="38" spans="1:11">
       <c r="A38" s="23"/>
       <c r="B38" s="24"/>
       <c r="C38" s="24"/>
@@ -5539,7 +5564,7 @@
       <c r="J38" s="24"/>
       <c r="K38" s="24"/>
     </row>
-    <row r="39" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="39" spans="1:11">
       <c r="A39" s="23"/>
       <c r="B39" s="24"/>
       <c r="C39" s="24"/>
@@ -5552,7 +5577,7 @@
       <c r="J39" s="24"/>
       <c r="K39" s="24"/>
     </row>
-    <row r="40" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="40" spans="1:11">
       <c r="A40" s="23"/>
       <c r="B40" s="24"/>
       <c r="C40" s="24"/>
@@ -5565,7 +5590,7 @@
       <c r="J40" s="24"/>
       <c r="K40" s="24"/>
     </row>
-    <row r="41" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="41" spans="1:11">
       <c r="A41" s="23"/>
       <c r="B41" s="24"/>
       <c r="C41" s="24"/>
@@ -5578,7 +5603,7 @@
       <c r="J41" s="24"/>
       <c r="K41" s="24"/>
     </row>
-    <row r="42" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="42" spans="1:11">
       <c r="A42" s="23"/>
       <c r="B42" s="24"/>
       <c r="C42" s="24"/>

--- a/1. Portfolio/Risikomanagement/Risikoplanung.xlsx
+++ b/1. Portfolio/Risikomanagement/Risikoplanung.xlsx
@@ -5,11 +5,11 @@
   <workbookPr defaultThemeVersion="124226"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Nico\Dropbox (Privat)\HFTL\SE-GitHub\ProjectManagement\1. Portfolio\Risikomanagement\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\the-l_000\SkyDrive\Dokumente\ProjectManagement\1. Portfolio\Risikomanagement\"/>
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="0" yWindow="1200" windowWidth="19200" windowHeight="6636"/>
+    <workbookView xWindow="0" yWindow="1800" windowWidth="19200" windowHeight="6630" activeTab="2"/>
   </bookViews>
   <sheets>
     <sheet name="Einordnung" sheetId="2" r:id="rId1"/>
@@ -67,7 +67,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="143" uniqueCount="90">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="149" uniqueCount="94">
   <si>
     <t>RisikoID</t>
   </si>
@@ -346,7 +346,19 @@
     <t>Stories falsch eingeschätzt</t>
   </si>
   <si>
-    <t>Rechtsradikaler Content gelang auf unsere Plattfrom</t>
+    <t>Jedwelige Möglichkeit muss in Betracht gezogen werden, dass staatlich verbotener Content auf unseren Dienst kommen kann</t>
+  </si>
+  <si>
+    <t>Rechtsradikaler Content &amp; Urheberrechtsverletzungen gelangen auf unsere Plattform</t>
+  </si>
+  <si>
+    <t>Rechtliche Belange, sowie Kosten können auf das Projekt zu kommen, bis hin zur Zwangsabschaltung</t>
+  </si>
+  <si>
+    <t>Prophylaktische Maßnahmen ergreifen, so dass wir uns absichern können, als auch die Möglichkeit des Versuchs, so stark minimieren, dass dies mit einem hohen Aufwand nur möglich wäre</t>
+  </si>
+  <si>
+    <t>mindestens 10000€</t>
   </si>
 </sst>
 </file>
@@ -356,7 +368,7 @@
   <numFmts count="1">
     <numFmt numFmtId="164" formatCode="#,##0.00\ &quot;€&quot;"/>
   </numFmts>
-  <fonts count="14">
+  <fonts count="15" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -455,6 +467,11 @@
       <family val="2"/>
       <scheme val="minor"/>
     </font>
+    <font>
+      <sz val="8"/>
+      <name val="Calibri"/>
+      <scheme val="minor"/>
+    </font>
   </fonts>
   <fills count="5">
     <fill>
@@ -759,7 +776,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="74">
+  <cellXfs count="77">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
@@ -947,6 +964,8 @@
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="1" fontId="13" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
+    <xf numFmtId="1" fontId="12" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="10" fillId="4" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
@@ -966,8 +985,17 @@
     <xf numFmtId="0" fontId="2" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="1" fontId="12" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="164" fontId="12" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="1" fontId="12" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Standard" xfId="0" builtinId="0"/>
@@ -1348,6 +1376,7 @@
           </a:p>
         </c:rich>
       </c:tx>
+      <c:layout/>
       <c:overlay val="0"/>
       <c:spPr>
         <a:noFill/>
@@ -1486,7 +1515,7 @@
                   <c:v>5</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>5</c:v>
+                  <c:v>6</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -1747,6 +1776,7 @@
     </c:plotArea>
     <c:legend>
       <c:legendPos val="b"/>
+      <c:layout/>
       <c:overlay val="0"/>
       <c:spPr>
         <a:noFill/>
@@ -1869,6 +1899,7 @@
           </a:p>
         </c:rich>
       </c:tx>
+      <c:layout/>
       <c:overlay val="0"/>
       <c:spPr>
         <a:noFill/>
@@ -2097,7 +2128,7 @@
                   <c:v>0</c:v>
                 </c:pt>
                 <c:pt idx="19">
-                  <c:v>0</c:v>
+                  <c:v>1</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -2236,6 +2267,7 @@
     </c:plotArea>
     <c:legend>
       <c:legendPos val="b"/>
+      <c:layout/>
       <c:overlay val="0"/>
       <c:spPr>
         <a:noFill/>
@@ -3464,8 +3496,8 @@
 </file>
 
 <file path=xl/tables/table2.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="3" name="Risikouebersicht" displayName="Risikouebersicht" ref="A3:K21" totalsRowShown="0" dataDxfId="11" headerRowBorderDxfId="12">
-  <autoFilter ref="A3:K21"/>
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="3" name="Risikouebersicht" displayName="Risikouebersicht" ref="A3:K22" totalsRowShown="0" dataDxfId="11" headerRowBorderDxfId="12">
+  <autoFilter ref="A3:K22"/>
   <sortState ref="A4:K17">
     <sortCondition ref="A3:A17"/>
   </sortState>
@@ -3781,25 +3813,25 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:F22"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="B25" sqref="B25"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="B23" sqref="B23"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="11.44140625" defaultRowHeight="10.199999999999999"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="11.42578125" defaultRowHeight="11.25" x14ac:dyDescent="0.2"/>
   <cols>
-    <col min="1" max="1" width="11.44140625" style="27"/>
-    <col min="2" max="2" width="49.88671875" style="27" bestFit="1" customWidth="1"/>
-    <col min="3" max="5" width="11.44140625" style="27"/>
-    <col min="6" max="6" width="43.44140625" style="27" customWidth="1"/>
-    <col min="7" max="16384" width="11.44140625" style="27"/>
+    <col min="1" max="1" width="11.42578125" style="27"/>
+    <col min="2" max="2" width="49.85546875" style="27" bestFit="1" customWidth="1"/>
+    <col min="3" max="5" width="11.42578125" style="27"/>
+    <col min="6" max="6" width="43.42578125" style="27" customWidth="1"/>
+    <col min="7" max="16384" width="11.42578125" style="27"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:6" ht="71.400000000000006">
+    <row r="1" spans="1:6" ht="78.75" x14ac:dyDescent="0.2">
       <c r="B1" s="28" t="s">
         <v>7</v>
       </c>
     </row>
-    <row r="3" spans="1:6">
+    <row r="3" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A3" s="27" t="s">
         <v>0</v>
       </c>
@@ -3810,7 +3842,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="4" spans="1:6">
+    <row r="4" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A4" s="62">
         <f t="shared" ref="A4:A19" si="0">ROW()-3</f>
         <v>1</v>
@@ -3822,7 +3854,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="5" spans="1:6">
+    <row r="5" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A5" s="50">
         <f t="shared" si="0"/>
         <v>2</v>
@@ -3834,7 +3866,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="6" spans="1:6">
+    <row r="6" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A6" s="50">
         <f t="shared" si="0"/>
         <v>3</v>
@@ -3850,7 +3882,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="7" spans="1:6">
+    <row r="7" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A7" s="50">
         <f t="shared" si="0"/>
         <v>4</v>
@@ -3862,7 +3894,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="8" spans="1:6">
+    <row r="8" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A8" s="50">
         <f t="shared" si="0"/>
         <v>5</v>
@@ -3874,7 +3906,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="9" spans="1:6">
+    <row r="9" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A9" s="50">
         <f t="shared" si="0"/>
         <v>6</v>
@@ -3886,7 +3918,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="10" spans="1:6">
+    <row r="10" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A10" s="50">
         <f t="shared" si="0"/>
         <v>7</v>
@@ -3898,7 +3930,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="11" spans="1:6">
+    <row r="11" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A11" s="50">
         <f t="shared" si="0"/>
         <v>8</v>
@@ -3910,7 +3942,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="12" spans="1:6">
+    <row r="12" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A12" s="50">
         <f t="shared" si="0"/>
         <v>9</v>
@@ -3922,7 +3954,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="13" spans="1:6">
+    <row r="13" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A13" s="50">
         <f t="shared" si="0"/>
         <v>10</v>
@@ -3934,7 +3966,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="14" spans="1:6">
+    <row r="14" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A14" s="50">
         <f t="shared" si="0"/>
         <v>11</v>
@@ -3946,7 +3978,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="15" spans="1:6">
+    <row r="15" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A15" s="50">
         <f t="shared" si="0"/>
         <v>12</v>
@@ -3958,7 +3990,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="16" spans="1:6">
+    <row r="16" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A16" s="50">
         <f t="shared" si="0"/>
         <v>13</v>
@@ -3970,7 +4002,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="17" spans="1:3">
+    <row r="17" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A17" s="50">
         <f t="shared" si="0"/>
         <v>14</v>
@@ -3982,7 +4014,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="18" spans="1:3">
+    <row r="18" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A18" s="50">
         <f t="shared" si="0"/>
         <v>15</v>
@@ -3994,7 +4026,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="19" spans="1:3">
+    <row r="19" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A19" s="50">
         <f t="shared" si="0"/>
         <v>16</v>
@@ -4006,7 +4038,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="20" spans="1:3">
+    <row r="20" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A20" s="50">
         <f>ROW()-3</f>
         <v>17</v>
@@ -4018,7 +4050,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="21" spans="1:3">
+    <row r="21" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A21" s="50">
         <f>ROW()-3</f>
         <v>18</v>
@@ -4030,14 +4062,16 @@
         <v>5</v>
       </c>
     </row>
-    <row r="22" spans="1:3">
-      <c r="A22" s="72">
+    <row r="22" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A22" s="63">
         <v>19</v>
       </c>
-      <c r="B22" s="73" t="s">
-        <v>89</v>
-      </c>
-      <c r="C22" s="73"/>
+      <c r="B22" s="64" t="s">
+        <v>90</v>
+      </c>
+      <c r="C22" s="64">
+        <v>5</v>
+      </c>
     </row>
   </sheetData>
   <dataValidations count="2">
@@ -4058,49 +4092,49 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:L21"/>
+  <dimension ref="A1:L22"/>
   <sheetViews>
     <sheetView topLeftCell="A14" workbookViewId="0">
-      <selection activeCell="A22" sqref="A22"/>
+      <selection activeCell="K22" sqref="K22"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="11.44140625" defaultRowHeight="10.199999999999999"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="11.42578125" defaultRowHeight="11.25" x14ac:dyDescent="0.2"/>
   <cols>
-    <col min="1" max="1" width="9.88671875" style="45" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="33.6640625" style="45" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="30.109375" style="37" customWidth="1"/>
+    <col min="1" max="1" width="9.85546875" style="45" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="37.42578125" style="45" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="30.140625" style="37" customWidth="1"/>
     <col min="4" max="4" width="31" style="37" customWidth="1"/>
-    <col min="5" max="5" width="9.33203125" style="44" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="16.6640625" style="29" customWidth="1"/>
-    <col min="7" max="7" width="20.44140625" style="43" bestFit="1" customWidth="1"/>
-    <col min="8" max="8" width="30.5546875" style="37" customWidth="1"/>
-    <col min="9" max="9" width="22.109375" style="40" customWidth="1"/>
+    <col min="5" max="5" width="9.28515625" style="44" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="16.7109375" style="29" customWidth="1"/>
+    <col min="7" max="7" width="20.42578125" style="43" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="30.5703125" style="37" customWidth="1"/>
+    <col min="9" max="9" width="22.140625" style="40" customWidth="1"/>
     <col min="10" max="10" width="9" style="41" customWidth="1"/>
-    <col min="11" max="11" width="16.44140625" style="42" bestFit="1" customWidth="1"/>
-    <col min="12" max="16384" width="11.44140625" style="36"/>
+    <col min="11" max="11" width="16.42578125" style="42" bestFit="1" customWidth="1"/>
+    <col min="12" max="16384" width="11.42578125" style="36"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:12" s="47" customFormat="1" ht="39.75" customHeight="1">
-      <c r="A1" s="63" t="s">
+    <row r="1" spans="1:12" s="47" customFormat="1" ht="39.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A1" s="65" t="s">
         <v>17</v>
       </c>
-      <c r="B1" s="63"/>
-      <c r="C1" s="63"/>
-      <c r="D1" s="63"/>
-      <c r="E1" s="63"/>
-      <c r="F1" s="63"/>
-      <c r="G1" s="63"/>
-      <c r="H1" s="63"/>
-      <c r="I1" s="63"/>
-      <c r="J1" s="63"/>
-      <c r="K1" s="64"/>
+      <c r="B1" s="65"/>
+      <c r="C1" s="65"/>
+      <c r="D1" s="65"/>
+      <c r="E1" s="65"/>
+      <c r="F1" s="65"/>
+      <c r="G1" s="65"/>
+      <c r="H1" s="65"/>
+      <c r="I1" s="65"/>
+      <c r="J1" s="65"/>
+      <c r="K1" s="66"/>
       <c r="L1" s="46"/>
     </row>
-    <row r="2" spans="1:12" s="47" customFormat="1" ht="15.75" customHeight="1">
-      <c r="A2" s="65"/>
-      <c r="B2" s="65"/>
-      <c r="C2" s="65"/>
-      <c r="D2" s="65"/>
+    <row r="2" spans="1:12" s="47" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A2" s="67"/>
+      <c r="B2" s="67"/>
+      <c r="C2" s="67"/>
+      <c r="D2" s="67"/>
       <c r="E2" s="48"/>
       <c r="F2" s="48"/>
       <c r="G2" s="48"/>
@@ -4110,7 +4144,7 @@
       <c r="K2" s="49"/>
       <c r="L2" s="46"/>
     </row>
-    <row r="3" spans="1:12" ht="10.8" thickBot="1">
+    <row r="3" spans="1:12" ht="12" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A3" s="58" t="s">
         <v>0</v>
       </c>
@@ -4145,7 +4179,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="4" spans="1:12" ht="30.6">
+    <row r="4" spans="1:12" ht="33.75" x14ac:dyDescent="0.2">
       <c r="A4" s="57">
         <f>RisikoID[RisikoID]</f>
         <v>1</v>
@@ -4181,7 +4215,7 @@
         <v>41</v>
       </c>
     </row>
-    <row r="5" spans="1:12" ht="30.6">
+    <row r="5" spans="1:12" ht="33.75" x14ac:dyDescent="0.2">
       <c r="A5" s="56">
         <f>RisikoID[RisikoID]</f>
         <v>2</v>
@@ -4217,7 +4251,7 @@
         <v>41</v>
       </c>
     </row>
-    <row r="6" spans="1:12" ht="30.6">
+    <row r="6" spans="1:12" ht="33.75" x14ac:dyDescent="0.2">
       <c r="A6" s="56">
         <f>RisikoID[RisikoID]</f>
         <v>3</v>
@@ -4253,7 +4287,7 @@
         <v>41</v>
       </c>
     </row>
-    <row r="7" spans="1:12" ht="61.2">
+    <row r="7" spans="1:12" ht="90" x14ac:dyDescent="0.2">
       <c r="A7" s="56">
         <f>RisikoID[RisikoID]</f>
         <v>4</v>
@@ -4289,7 +4323,7 @@
         <v>41</v>
       </c>
     </row>
-    <row r="8" spans="1:12" ht="30.6">
+    <row r="8" spans="1:12" ht="33.75" x14ac:dyDescent="0.2">
       <c r="A8" s="56">
         <f>RisikoID[RisikoID]</f>
         <v>5</v>
@@ -4323,7 +4357,7 @@
         <v>41</v>
       </c>
     </row>
-    <row r="9" spans="1:12" ht="40.799999999999997">
+    <row r="9" spans="1:12" ht="56.25" x14ac:dyDescent="0.2">
       <c r="A9" s="56">
         <f>RisikoID[RisikoID]</f>
         <v>6</v>
@@ -4357,7 +4391,7 @@
         <v>41</v>
       </c>
     </row>
-    <row r="10" spans="1:12" ht="30.6">
+    <row r="10" spans="1:12" ht="45" x14ac:dyDescent="0.2">
       <c r="A10" s="56">
         <f>RisikoID[RisikoID]</f>
         <v>7</v>
@@ -4391,7 +4425,7 @@
         <v>41</v>
       </c>
     </row>
-    <row r="11" spans="1:12" ht="20.399999999999999">
+    <row r="11" spans="1:12" ht="22.5" x14ac:dyDescent="0.2">
       <c r="A11" s="56">
         <f>RisikoID[RisikoID]</f>
         <v>8</v>
@@ -4425,7 +4459,7 @@
         <v>41</v>
       </c>
     </row>
-    <row r="12" spans="1:12" ht="30.6">
+    <row r="12" spans="1:12" ht="33.75" x14ac:dyDescent="0.2">
       <c r="A12" s="56">
         <f>RisikoID[RisikoID]</f>
         <v>9</v>
@@ -4459,7 +4493,7 @@
         <v>41</v>
       </c>
     </row>
-    <row r="13" spans="1:12" ht="40.799999999999997">
+    <row r="13" spans="1:12" ht="45" x14ac:dyDescent="0.2">
       <c r="A13" s="56">
         <f>RisikoID[RisikoID]</f>
         <v>10</v>
@@ -4495,7 +4529,7 @@
         <v>41</v>
       </c>
     </row>
-    <row r="14" spans="1:12" ht="20.399999999999999">
+    <row r="14" spans="1:12" ht="22.5" x14ac:dyDescent="0.2">
       <c r="A14" s="56">
         <f>RisikoID[RisikoID]</f>
         <v>11</v>
@@ -4531,7 +4565,7 @@
         <v>41</v>
       </c>
     </row>
-    <row r="15" spans="1:12" ht="51">
+    <row r="15" spans="1:12" ht="56.25" x14ac:dyDescent="0.2">
       <c r="A15" s="56">
         <f>RisikoID[RisikoID]</f>
         <v>12</v>
@@ -4565,7 +4599,7 @@
         <v>41</v>
       </c>
     </row>
-    <row r="16" spans="1:12" ht="40.799999999999997">
+    <row r="16" spans="1:12" ht="45" x14ac:dyDescent="0.2">
       <c r="A16" s="56">
         <f>RisikoID[RisikoID]</f>
         <v>13</v>
@@ -4601,7 +4635,7 @@
         <v>41</v>
       </c>
     </row>
-    <row r="17" spans="1:11" ht="40.799999999999997">
+    <row r="17" spans="1:11" ht="45" x14ac:dyDescent="0.2">
       <c r="A17" s="56">
         <f>RisikoID[RisikoID]</f>
         <v>14</v>
@@ -4637,7 +4671,7 @@
         <v>41</v>
       </c>
     </row>
-    <row r="18" spans="1:11" ht="81.599999999999994">
+    <row r="18" spans="1:11" ht="101.25" x14ac:dyDescent="0.2">
       <c r="A18" s="56">
         <f>RisikoID[RisikoID]</f>
         <v>15</v>
@@ -4673,7 +4707,7 @@
         <v>41</v>
       </c>
     </row>
-    <row r="19" spans="1:11" ht="30.6">
+    <row r="19" spans="1:11" ht="33.75" x14ac:dyDescent="0.2">
       <c r="A19" s="56">
         <f>RisikoID[RisikoID]</f>
         <v>16</v>
@@ -4709,7 +4743,7 @@
         <v>41</v>
       </c>
     </row>
-    <row r="20" spans="1:11" ht="51">
+    <row r="20" spans="1:11" ht="56.25" x14ac:dyDescent="0.2">
       <c r="A20" s="57">
         <f>RisikoID[RisikoID]</f>
         <v>17</v>
@@ -4742,7 +4776,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="21" spans="1:11" ht="20.399999999999999">
+    <row r="21" spans="1:11" ht="22.5" x14ac:dyDescent="0.2">
       <c r="A21" s="57">
         <f>RisikoID[RisikoID]</f>
         <v>18</v>
@@ -4773,6 +4807,42 @@
       <c r="J21" s="60">
         <f>RisikoID[Tragweite]</f>
         <v>5</v>
+      </c>
+    </row>
+    <row r="22" spans="1:11" ht="56.25" x14ac:dyDescent="0.2">
+      <c r="A22" s="56">
+        <f>RisikoID[RisikoID]</f>
+        <v>19</v>
+      </c>
+      <c r="B22" s="76" t="str">
+        <f>RisikoID[Risiko]</f>
+        <v>Rechtsradikaler Content &amp; Urheberrechtsverletzungen gelangen auf unsere Plattform</v>
+      </c>
+      <c r="C22" s="52" t="s">
+        <v>89</v>
+      </c>
+      <c r="D22" s="52" t="s">
+        <v>91</v>
+      </c>
+      <c r="E22" s="53"/>
+      <c r="F22" s="54" t="s">
+        <v>40</v>
+      </c>
+      <c r="G22" s="74" t="s">
+        <v>42</v>
+      </c>
+      <c r="H22" s="52" t="s">
+        <v>92</v>
+      </c>
+      <c r="I22" s="55">
+        <v>1</v>
+      </c>
+      <c r="J22" s="61">
+        <f>RisikoID[Tragweite]</f>
+        <v>5</v>
+      </c>
+      <c r="K22" s="75" t="s">
+        <v>93</v>
       </c>
     </row>
   </sheetData>
@@ -4781,7 +4851,7 @@
     <mergeCell ref="A1:K1"/>
     <mergeCell ref="A2:D2"/>
   </mergeCells>
-  <conditionalFormatting sqref="J4:J21">
+  <conditionalFormatting sqref="J4:J22">
     <cfRule type="colorScale" priority="7">
       <colorScale>
         <cfvo type="min"/>
@@ -4793,7 +4863,7 @@
       </colorScale>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="I4:I21">
+  <conditionalFormatting sqref="I4:I22">
     <cfRule type="colorScale" priority="8">
       <colorScale>
         <cfvo type="min"/>
@@ -4806,10 +4876,10 @@
     </cfRule>
   </conditionalFormatting>
   <dataValidations count="2">
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="I4:I21">
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="I4:I22">
       <formula1>"0%,5%,10%,15%,20%,25%,30%,35%,40%,45%,50%,55%,60%,65%,70%,75%,80%,85%,90%,95%,100%,"</formula1>
     </dataValidation>
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="F4:F21">
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="F4:F22">
       <formula1>"Projektleiter, Projektteamleiter, Scrum Master, ANFO, Design, Developement, Alle"</formula1>
     </dataValidation>
   </dataValidations>
@@ -4825,52 +4895,52 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:Q42"/>
   <sheetViews>
-    <sheetView zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
+    <sheetView tabSelected="1" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
       <selection activeCell="I19" sqref="I19"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="11.44140625" defaultRowHeight="10.199999999999999"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="11.42578125" defaultRowHeight="11.25" x14ac:dyDescent="0.2"/>
   <cols>
-    <col min="1" max="1" width="17.5546875" style="2" customWidth="1"/>
-    <col min="2" max="2" width="15.44140625" style="1" customWidth="1"/>
-    <col min="3" max="3" width="3.44140625" style="1" customWidth="1"/>
-    <col min="4" max="5" width="11.44140625" style="1"/>
-    <col min="6" max="6" width="15.88671875" style="1" bestFit="1" customWidth="1"/>
-    <col min="7" max="10" width="11.44140625" style="1"/>
-    <col min="11" max="11" width="6.5546875" style="1" customWidth="1"/>
-    <col min="12" max="12" width="11.33203125" style="2" customWidth="1"/>
-    <col min="13" max="17" width="4.6640625" style="2" customWidth="1"/>
-    <col min="18" max="16384" width="11.44140625" style="1"/>
+    <col min="1" max="1" width="17.5703125" style="2" customWidth="1"/>
+    <col min="2" max="2" width="15.42578125" style="1" customWidth="1"/>
+    <col min="3" max="3" width="3.42578125" style="1" customWidth="1"/>
+    <col min="4" max="5" width="11.42578125" style="1"/>
+    <col min="6" max="6" width="15.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="7" max="10" width="11.42578125" style="1"/>
+    <col min="11" max="11" width="6.5703125" style="1" customWidth="1"/>
+    <col min="12" max="12" width="11.28515625" style="2" customWidth="1"/>
+    <col min="13" max="17" width="4.7109375" style="2" customWidth="1"/>
+    <col min="18" max="16384" width="11.42578125" style="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:17" ht="14.4">
-      <c r="A1" s="71" t="s">
+    <row r="1" spans="1:17" ht="15" x14ac:dyDescent="0.25">
+      <c r="A1" s="73" t="s">
         <v>8</v>
       </c>
-      <c r="B1" s="71"/>
-      <c r="C1" s="71"/>
-      <c r="D1" s="71"/>
-      <c r="E1" s="71"/>
-      <c r="F1" s="71"/>
-      <c r="G1" s="71"/>
-      <c r="H1" s="71"/>
-      <c r="I1" s="71"/>
-      <c r="J1" s="71"/>
+      <c r="B1" s="73"/>
+      <c r="C1" s="73"/>
+      <c r="D1" s="73"/>
+      <c r="E1" s="73"/>
+      <c r="F1" s="73"/>
+      <c r="G1" s="73"/>
+      <c r="H1" s="73"/>
+      <c r="I1" s="73"/>
+      <c r="J1" s="73"/>
       <c r="K1" s="18"/>
       <c r="L1" s="19"/>
       <c r="M1" s="19"/>
     </row>
-    <row r="2" spans="1:17" ht="15" thickBot="1">
-      <c r="A2" s="69" t="s">
+    <row r="2" spans="1:17" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A2" s="71" t="s">
         <v>15</v>
       </c>
-      <c r="B2" s="70"/>
+      <c r="B2" s="72"/>
       <c r="C2" s="24"/>
-      <c r="D2" s="66" t="s">
+      <c r="D2" s="68" t="s">
         <v>9</v>
       </c>
-      <c r="E2" s="67"/>
-      <c r="F2" s="68"/>
+      <c r="E2" s="69"/>
+      <c r="F2" s="70"/>
       <c r="G2" s="24"/>
       <c r="H2" s="24"/>
       <c r="I2" s="24"/>
@@ -4878,7 +4948,7 @@
       <c r="K2"/>
       <c r="L2" s="21"/>
     </row>
-    <row r="3" spans="1:17">
+    <row r="3" spans="1:17" x14ac:dyDescent="0.2">
       <c r="A3" s="12">
         <v>0.05</v>
       </c>
@@ -4905,7 +4975,7 @@
       <c r="L3" s="22"/>
       <c r="M3" s="20"/>
     </row>
-    <row r="4" spans="1:17">
+    <row r="4" spans="1:17" x14ac:dyDescent="0.2">
       <c r="A4" s="13">
         <v>0.1</v>
       </c>
@@ -4936,7 +5006,7 @@
       <c r="P4" s="26"/>
       <c r="Q4" s="26"/>
     </row>
-    <row r="5" spans="1:17">
+    <row r="5" spans="1:17" x14ac:dyDescent="0.2">
       <c r="A5" s="13">
         <v>0.15</v>
       </c>
@@ -4967,7 +5037,7 @@
       <c r="P5" s="26"/>
       <c r="Q5" s="26"/>
     </row>
-    <row r="6" spans="1:17">
+    <row r="6" spans="1:17" x14ac:dyDescent="0.2">
       <c r="A6" s="13">
         <v>0.2</v>
       </c>
@@ -4998,7 +5068,7 @@
       <c r="P6" s="26"/>
       <c r="Q6" s="26"/>
     </row>
-    <row r="7" spans="1:17">
+    <row r="7" spans="1:17" x14ac:dyDescent="0.2">
       <c r="A7" s="13">
         <v>0.25</v>
       </c>
@@ -5012,7 +5082,7 @@
       </c>
       <c r="E7" s="5">
         <f>COUNTIF(Risikoübersicht!J:J,5)</f>
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="F7" s="6" t="s">
         <v>14</v>
@@ -5029,7 +5099,7 @@
       <c r="P7" s="26"/>
       <c r="Q7" s="26"/>
     </row>
-    <row r="8" spans="1:17">
+    <row r="8" spans="1:17" x14ac:dyDescent="0.2">
       <c r="A8" s="13">
         <v>0.3</v>
       </c>
@@ -5050,7 +5120,7 @@
       <c r="P8" s="26"/>
       <c r="Q8" s="26"/>
     </row>
-    <row r="9" spans="1:17">
+    <row r="9" spans="1:17" x14ac:dyDescent="0.2">
       <c r="A9" s="13">
         <v>0.35</v>
       </c>
@@ -5071,7 +5141,7 @@
       <c r="P9" s="26"/>
       <c r="Q9" s="26"/>
     </row>
-    <row r="10" spans="1:17">
+    <row r="10" spans="1:17" x14ac:dyDescent="0.2">
       <c r="A10" s="13">
         <v>0.4</v>
       </c>
@@ -5092,7 +5162,7 @@
       <c r="P10" s="26"/>
       <c r="Q10" s="26"/>
     </row>
-    <row r="11" spans="1:17">
+    <row r="11" spans="1:17" x14ac:dyDescent="0.2">
       <c r="A11" s="13">
         <v>0.45</v>
       </c>
@@ -5113,7 +5183,7 @@
       <c r="P11" s="26"/>
       <c r="Q11" s="26"/>
     </row>
-    <row r="12" spans="1:17">
+    <row r="12" spans="1:17" x14ac:dyDescent="0.2">
       <c r="A12" s="13">
         <v>0.5</v>
       </c>
@@ -5134,7 +5204,7 @@
       <c r="P12" s="26"/>
       <c r="Q12" s="26"/>
     </row>
-    <row r="13" spans="1:17">
+    <row r="13" spans="1:17" x14ac:dyDescent="0.2">
       <c r="A13" s="13">
         <v>0.55000000000000004</v>
       </c>
@@ -5155,7 +5225,7 @@
       <c r="P13" s="26"/>
       <c r="Q13" s="26"/>
     </row>
-    <row r="14" spans="1:17">
+    <row r="14" spans="1:17" x14ac:dyDescent="0.2">
       <c r="A14" s="13">
         <v>0.6</v>
       </c>
@@ -5176,7 +5246,7 @@
       <c r="P14" s="26"/>
       <c r="Q14" s="26"/>
     </row>
-    <row r="15" spans="1:17">
+    <row r="15" spans="1:17" x14ac:dyDescent="0.2">
       <c r="A15" s="13">
         <v>0.65</v>
       </c>
@@ -5197,7 +5267,7 @@
       <c r="P15" s="26"/>
       <c r="Q15" s="26"/>
     </row>
-    <row r="16" spans="1:17">
+    <row r="16" spans="1:17" x14ac:dyDescent="0.2">
       <c r="A16" s="13">
         <v>0.7</v>
       </c>
@@ -5218,7 +5288,7 @@
       <c r="P16" s="26"/>
       <c r="Q16" s="26"/>
     </row>
-    <row r="17" spans="1:17">
+    <row r="17" spans="1:17" x14ac:dyDescent="0.2">
       <c r="A17" s="13">
         <v>0.75</v>
       </c>
@@ -5239,7 +5309,7 @@
       <c r="P17" s="26"/>
       <c r="Q17" s="26"/>
     </row>
-    <row r="18" spans="1:17">
+    <row r="18" spans="1:17" x14ac:dyDescent="0.2">
       <c r="A18" s="13">
         <v>0.8</v>
       </c>
@@ -5260,7 +5330,7 @@
       <c r="P18" s="26"/>
       <c r="Q18" s="26"/>
     </row>
-    <row r="19" spans="1:17">
+    <row r="19" spans="1:17" x14ac:dyDescent="0.2">
       <c r="A19" s="13">
         <v>0.85</v>
       </c>
@@ -5281,7 +5351,7 @@
       <c r="P19" s="26"/>
       <c r="Q19" s="26"/>
     </row>
-    <row r="20" spans="1:17">
+    <row r="20" spans="1:17" x14ac:dyDescent="0.2">
       <c r="A20" s="13">
         <v>0.9</v>
       </c>
@@ -5302,7 +5372,7 @@
       <c r="P20" s="26"/>
       <c r="Q20" s="26"/>
     </row>
-    <row r="21" spans="1:17">
+    <row r="21" spans="1:17" x14ac:dyDescent="0.2">
       <c r="A21" s="13">
         <v>0.95</v>
       </c>
@@ -5323,13 +5393,13 @@
       <c r="P21" s="26"/>
       <c r="Q21" s="26"/>
     </row>
-    <row r="22" spans="1:17">
+    <row r="22" spans="1:17" x14ac:dyDescent="0.2">
       <c r="A22" s="14">
         <v>1</v>
       </c>
       <c r="B22" s="9">
         <f>COUNTIF(Risikoübersicht!I:I,100%)</f>
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="C22" s="24"/>
       <c r="G22" s="24"/>
@@ -5344,7 +5414,7 @@
       <c r="P22" s="26"/>
       <c r="Q22" s="26"/>
     </row>
-    <row r="23" spans="1:17">
+    <row r="23" spans="1:17" x14ac:dyDescent="0.2">
       <c r="A23" s="23"/>
       <c r="B23" s="24"/>
       <c r="C23" s="24"/>
@@ -5363,7 +5433,7 @@
       <c r="P23" s="26"/>
       <c r="Q23" s="26"/>
     </row>
-    <row r="24" spans="1:17">
+    <row r="24" spans="1:17" x14ac:dyDescent="0.2">
       <c r="A24" s="23"/>
       <c r="B24" s="24"/>
       <c r="C24" s="24"/>
@@ -5382,7 +5452,7 @@
       <c r="P24" s="25"/>
       <c r="Q24" s="25"/>
     </row>
-    <row r="25" spans="1:17">
+    <row r="25" spans="1:17" x14ac:dyDescent="0.2">
       <c r="A25" s="23"/>
       <c r="B25" s="24"/>
       <c r="C25" s="24"/>
@@ -5395,7 +5465,7 @@
       <c r="J25" s="24"/>
       <c r="K25" s="24"/>
     </row>
-    <row r="26" spans="1:17">
+    <row r="26" spans="1:17" x14ac:dyDescent="0.2">
       <c r="A26" s="23"/>
       <c r="B26" s="24"/>
       <c r="C26" s="24"/>
@@ -5408,7 +5478,7 @@
       <c r="J26" s="24"/>
       <c r="K26" s="24"/>
     </row>
-    <row r="27" spans="1:17">
+    <row r="27" spans="1:17" x14ac:dyDescent="0.2">
       <c r="A27" s="23"/>
       <c r="B27" s="24"/>
       <c r="C27" s="24"/>
@@ -5421,7 +5491,7 @@
       <c r="J27" s="24"/>
       <c r="K27" s="24"/>
     </row>
-    <row r="28" spans="1:17">
+    <row r="28" spans="1:17" x14ac:dyDescent="0.2">
       <c r="A28" s="23"/>
       <c r="B28" s="24"/>
       <c r="C28" s="24"/>
@@ -5434,7 +5504,7 @@
       <c r="J28" s="24"/>
       <c r="K28" s="24"/>
     </row>
-    <row r="29" spans="1:17">
+    <row r="29" spans="1:17" x14ac:dyDescent="0.2">
       <c r="A29" s="23"/>
       <c r="B29" s="24"/>
       <c r="C29" s="24"/>
@@ -5447,7 +5517,7 @@
       <c r="J29" s="24"/>
       <c r="K29" s="24"/>
     </row>
-    <row r="30" spans="1:17">
+    <row r="30" spans="1:17" x14ac:dyDescent="0.2">
       <c r="A30" s="23"/>
       <c r="B30" s="24"/>
       <c r="C30" s="24"/>
@@ -5460,7 +5530,7 @@
       <c r="J30" s="24"/>
       <c r="K30" s="24"/>
     </row>
-    <row r="31" spans="1:17">
+    <row r="31" spans="1:17" x14ac:dyDescent="0.2">
       <c r="A31" s="23"/>
       <c r="B31" s="24"/>
       <c r="C31" s="24"/>
@@ -5473,7 +5543,7 @@
       <c r="J31" s="24"/>
       <c r="K31" s="24"/>
     </row>
-    <row r="32" spans="1:17">
+    <row r="32" spans="1:17" x14ac:dyDescent="0.2">
       <c r="A32" s="23"/>
       <c r="B32" s="24"/>
       <c r="C32" s="24"/>
@@ -5486,7 +5556,7 @@
       <c r="J32" s="24"/>
       <c r="K32" s="24"/>
     </row>
-    <row r="33" spans="1:11">
+    <row r="33" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A33" s="23"/>
       <c r="B33" s="24"/>
       <c r="C33" s="24"/>
@@ -5499,7 +5569,7 @@
       <c r="J33" s="24"/>
       <c r="K33" s="24"/>
     </row>
-    <row r="34" spans="1:11">
+    <row r="34" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A34" s="23"/>
       <c r="B34" s="24"/>
       <c r="C34" s="24"/>
@@ -5512,7 +5582,7 @@
       <c r="J34" s="24"/>
       <c r="K34" s="24"/>
     </row>
-    <row r="35" spans="1:11">
+    <row r="35" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A35" s="23"/>
       <c r="B35" s="24"/>
       <c r="C35" s="24"/>
@@ -5525,7 +5595,7 @@
       <c r="J35" s="24"/>
       <c r="K35" s="24"/>
     </row>
-    <row r="36" spans="1:11">
+    <row r="36" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A36" s="23"/>
       <c r="B36" s="24"/>
       <c r="C36" s="24"/>
@@ -5538,7 +5608,7 @@
       <c r="J36" s="24"/>
       <c r="K36" s="24"/>
     </row>
-    <row r="37" spans="1:11">
+    <row r="37" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A37" s="23"/>
       <c r="B37" s="24"/>
       <c r="C37" s="24"/>
@@ -5551,7 +5621,7 @@
       <c r="J37" s="24"/>
       <c r="K37" s="24"/>
     </row>
-    <row r="38" spans="1:11">
+    <row r="38" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A38" s="23"/>
       <c r="B38" s="24"/>
       <c r="C38" s="24"/>
@@ -5564,7 +5634,7 @@
       <c r="J38" s="24"/>
       <c r="K38" s="24"/>
     </row>
-    <row r="39" spans="1:11">
+    <row r="39" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A39" s="23"/>
       <c r="B39" s="24"/>
       <c r="C39" s="24"/>
@@ -5577,7 +5647,7 @@
       <c r="J39" s="24"/>
       <c r="K39" s="24"/>
     </row>
-    <row r="40" spans="1:11">
+    <row r="40" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A40" s="23"/>
       <c r="B40" s="24"/>
       <c r="C40" s="24"/>
@@ -5590,7 +5660,7 @@
       <c r="J40" s="24"/>
       <c r="K40" s="24"/>
     </row>
-    <row r="41" spans="1:11">
+    <row r="41" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A41" s="23"/>
       <c r="B41" s="24"/>
       <c r="C41" s="24"/>
@@ -5603,7 +5673,7 @@
       <c r="J41" s="24"/>
       <c r="K41" s="24"/>
     </row>
-    <row r="42" spans="1:11">
+    <row r="42" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A42" s="23"/>
       <c r="B42" s="24"/>
       <c r="C42" s="24"/>

--- a/1. Portfolio/Risikomanagement/Risikoplanung.xlsx
+++ b/1. Portfolio/Risikomanagement/Risikoplanung.xlsx
@@ -9,16 +9,16 @@
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="0" yWindow="1800" windowWidth="19200" windowHeight="6630" activeTab="2"/>
+    <workbookView xWindow="0" yWindow="2400" windowWidth="19200" windowHeight="6630" activeTab="1"/>
   </bookViews>
   <sheets>
     <sheet name="Einordnung" sheetId="2" r:id="rId1"/>
-    <sheet name="Risikoübersicht" sheetId="1" r:id="rId2"/>
+    <sheet name="2" sheetId="1" r:id="rId2"/>
     <sheet name="Risikomatrix" sheetId="3" r:id="rId3"/>
   </sheets>
   <definedNames>
-    <definedName name="_xlcn.WorksheetConnection_Risikoplanung.xlsxRisikoID1" hidden="1">RisikoID[]</definedName>
-    <definedName name="_xlcn.WorksheetConnection_Risikoplanung.xlsxRisikouebersicht1" hidden="1">Risikouebersicht[]</definedName>
+    <definedName name="_xlcn.WorksheetConnection_Risikoplanung.xlsxRisikoID" hidden="1">RisikoID[]</definedName>
+    <definedName name="_xlcn.WorksheetConnection_Risikoplanung.xlsxRisikouebersicht" hidden="1">Risikouebersicht[]</definedName>
   </definedNames>
   <calcPr calcId="162913"/>
   <extLst>
@@ -49,7 +49,7 @@
     <extLst>
       <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{DE250136-89BD-433C-8126-D09CA5730AF9}">
         <x15:connection id="RisikoID-2eab3d3c-255d-4a1b-aa4f-f2f9d2e92242">
-          <x15:rangePr sourceName="_xlcn.WorksheetConnection_Risikoplanung.xlsxRisikoID1"/>
+          <x15:rangePr sourceName="_xlcn.WorksheetConnection_Risikoplanung.xlsxRisikoID"/>
         </x15:connection>
       </ext>
     </extLst>
@@ -58,7 +58,7 @@
     <extLst>
       <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{DE250136-89BD-433C-8126-D09CA5730AF9}">
         <x15:connection id="Risikouebersicht-855ad3a4-13d3-4d1e-9f0e-ca193aa757ae">
-          <x15:rangePr sourceName="_xlcn.WorksheetConnection_Risikoplanung.xlsxRisikouebersicht1"/>
+          <x15:rangePr sourceName="_xlcn.WorksheetConnection_Risikoplanung.xlsxRisikouebersicht"/>
         </x15:connection>
       </ext>
     </extLst>
@@ -966,6 +966,17 @@
     <xf numFmtId="1" fontId="13" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
     <xf numFmtId="1" fontId="12" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
     <xf numFmtId="0" fontId="12" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="164" fontId="12" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="1" fontId="12" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
     <xf numFmtId="0" fontId="10" fillId="4" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
@@ -984,17 +995,6 @@
     <xf numFmtId="0" fontId="1" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="2" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="164" fontId="12" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="1" fontId="12" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -4094,7 +4094,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:L22"/>
   <sheetViews>
-    <sheetView topLeftCell="A14" workbookViewId="0">
+    <sheetView tabSelected="1" topLeftCell="A14" workbookViewId="0">
       <selection activeCell="K22" sqref="K22"/>
     </sheetView>
   </sheetViews>
@@ -4115,26 +4115,26 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:12" s="47" customFormat="1" ht="39.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A1" s="65" t="s">
+      <c r="A1" s="68" t="s">
         <v>17</v>
       </c>
-      <c r="B1" s="65"/>
-      <c r="C1" s="65"/>
-      <c r="D1" s="65"/>
-      <c r="E1" s="65"/>
-      <c r="F1" s="65"/>
-      <c r="G1" s="65"/>
-      <c r="H1" s="65"/>
-      <c r="I1" s="65"/>
-      <c r="J1" s="65"/>
-      <c r="K1" s="66"/>
+      <c r="B1" s="68"/>
+      <c r="C1" s="68"/>
+      <c r="D1" s="68"/>
+      <c r="E1" s="68"/>
+      <c r="F1" s="68"/>
+      <c r="G1" s="68"/>
+      <c r="H1" s="68"/>
+      <c r="I1" s="68"/>
+      <c r="J1" s="68"/>
+      <c r="K1" s="69"/>
       <c r="L1" s="46"/>
     </row>
     <row r="2" spans="1:12" s="47" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A2" s="67"/>
-      <c r="B2" s="67"/>
-      <c r="C2" s="67"/>
-      <c r="D2" s="67"/>
+      <c r="A2" s="70"/>
+      <c r="B2" s="70"/>
+      <c r="C2" s="70"/>
+      <c r="D2" s="70"/>
       <c r="E2" s="48"/>
       <c r="F2" s="48"/>
       <c r="G2" s="48"/>
@@ -4814,7 +4814,7 @@
         <f>RisikoID[RisikoID]</f>
         <v>19</v>
       </c>
-      <c r="B22" s="76" t="str">
+      <c r="B22" s="67" t="str">
         <f>RisikoID[Risiko]</f>
         <v>Rechtsradikaler Content &amp; Urheberrechtsverletzungen gelangen auf unsere Plattform</v>
       </c>
@@ -4828,7 +4828,7 @@
       <c r="F22" s="54" t="s">
         <v>40</v>
       </c>
-      <c r="G22" s="74" t="s">
+      <c r="G22" s="65" t="s">
         <v>42</v>
       </c>
       <c r="H22" s="52" t="s">
@@ -4841,7 +4841,7 @@
         <f>RisikoID[Tragweite]</f>
         <v>5</v>
       </c>
-      <c r="K22" s="75" t="s">
+      <c r="K22" s="66" t="s">
         <v>93</v>
       </c>
     </row>
@@ -4895,7 +4895,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:Q42"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
+    <sheetView zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
       <selection activeCell="I19" sqref="I19"/>
     </sheetView>
   </sheetViews>
@@ -4914,33 +4914,33 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:17" ht="15" x14ac:dyDescent="0.25">
-      <c r="A1" s="73" t="s">
+      <c r="A1" s="76" t="s">
         <v>8</v>
       </c>
-      <c r="B1" s="73"/>
-      <c r="C1" s="73"/>
-      <c r="D1" s="73"/>
-      <c r="E1" s="73"/>
-      <c r="F1" s="73"/>
-      <c r="G1" s="73"/>
-      <c r="H1" s="73"/>
-      <c r="I1" s="73"/>
-      <c r="J1" s="73"/>
+      <c r="B1" s="76"/>
+      <c r="C1" s="76"/>
+      <c r="D1" s="76"/>
+      <c r="E1" s="76"/>
+      <c r="F1" s="76"/>
+      <c r="G1" s="76"/>
+      <c r="H1" s="76"/>
+      <c r="I1" s="76"/>
+      <c r="J1" s="76"/>
       <c r="K1" s="18"/>
       <c r="L1" s="19"/>
       <c r="M1" s="19"/>
     </row>
     <row r="2" spans="1:17" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A2" s="71" t="s">
+      <c r="A2" s="74" t="s">
         <v>15</v>
       </c>
-      <c r="B2" s="72"/>
+      <c r="B2" s="75"/>
       <c r="C2" s="24"/>
-      <c r="D2" s="68" t="s">
+      <c r="D2" s="71" t="s">
         <v>9</v>
       </c>
-      <c r="E2" s="69"/>
-      <c r="F2" s="70"/>
+      <c r="E2" s="72"/>
+      <c r="F2" s="73"/>
       <c r="G2" s="24"/>
       <c r="H2" s="24"/>
       <c r="I2" s="24"/>
@@ -4953,7 +4953,7 @@
         <v>0.05</v>
       </c>
       <c r="B3" s="7">
-        <f>COUNTIF(Risikoübersicht!I:I,5%)</f>
+        <f>COUNTIF('2'!I:I,5%)</f>
         <v>8</v>
       </c>
       <c r="C3" s="24"/>
@@ -4961,7 +4961,7 @@
         <v>1</v>
       </c>
       <c r="E3" s="16">
-        <f>COUNTIF(Risikoübersicht!J:J,1)</f>
+        <f>COUNTIF('2'!J:J,1)</f>
         <v>0</v>
       </c>
       <c r="F3" s="17" t="s">
@@ -4980,7 +4980,7 @@
         <v>0.1</v>
       </c>
       <c r="B4" s="8">
-        <f>COUNTIF(Risikoübersicht!I:I,10%)</f>
+        <f>COUNTIF('2'!I:I,10%)</f>
         <v>2</v>
       </c>
       <c r="C4" s="24"/>
@@ -4988,7 +4988,7 @@
         <v>2</v>
       </c>
       <c r="E4" s="3">
-        <f>COUNTIF(Risikoübersicht!J:J,2)</f>
+        <f>COUNTIF('2'!J:J,2)</f>
         <v>2</v>
       </c>
       <c r="F4" s="4" t="s">
@@ -5011,7 +5011,7 @@
         <v>0.15</v>
       </c>
       <c r="B5" s="8">
-        <f>COUNTIF(Risikoübersicht!I:I,15%)</f>
+        <f>COUNTIF('2'!I:I,15%)</f>
         <v>2</v>
       </c>
       <c r="C5" s="24"/>
@@ -5019,7 +5019,7 @@
         <v>3</v>
       </c>
       <c r="E5" s="3">
-        <f>COUNTIF(Risikoübersicht!J:J,3)</f>
+        <f>COUNTIF('2'!J:J,3)</f>
         <v>6</v>
       </c>
       <c r="F5" s="4" t="s">
@@ -5042,7 +5042,7 @@
         <v>0.2</v>
       </c>
       <c r="B6" s="8">
-        <f>COUNTIF(Risikoübersicht!I:I,20%)</f>
+        <f>COUNTIF('2'!I:I,20%)</f>
         <v>0</v>
       </c>
       <c r="C6" s="24"/>
@@ -5050,7 +5050,7 @@
         <v>4</v>
       </c>
       <c r="E6" s="3">
-        <f>COUNTIF(Risikoübersicht!J:J,4)</f>
+        <f>COUNTIF('2'!J:J,4)</f>
         <v>5</v>
       </c>
       <c r="F6" s="4" t="s">
@@ -5073,7 +5073,7 @@
         <v>0.25</v>
       </c>
       <c r="B7" s="8">
-        <f>COUNTIF(Risikoübersicht!I:I,25%)</f>
+        <f>COUNTIF('2'!I:I,25%)</f>
         <v>1</v>
       </c>
       <c r="C7" s="24"/>
@@ -5081,7 +5081,7 @@
         <v>5</v>
       </c>
       <c r="E7" s="5">
-        <f>COUNTIF(Risikoübersicht!J:J,5)</f>
+        <f>COUNTIF('2'!J:J,5)</f>
         <v>6</v>
       </c>
       <c r="F7" s="6" t="s">
@@ -5104,7 +5104,7 @@
         <v>0.3</v>
       </c>
       <c r="B8" s="8">
-        <f>COUNTIF(Risikoübersicht!I:I,30%)</f>
+        <f>COUNTIF('2'!I:I,30%)</f>
         <v>0</v>
       </c>
       <c r="C8" s="24"/>
@@ -5125,7 +5125,7 @@
         <v>0.35</v>
       </c>
       <c r="B9" s="8">
-        <f>COUNTIF(Risikoübersicht!I:I,35%)</f>
+        <f>COUNTIF('2'!I:I,35%)</f>
         <v>0</v>
       </c>
       <c r="C9" s="24"/>
@@ -5146,7 +5146,7 @@
         <v>0.4</v>
       </c>
       <c r="B10" s="8">
-        <f>COUNTIF(Risikoübersicht!I:I,40%)</f>
+        <f>COUNTIF('2'!I:I,40%)</f>
         <v>1</v>
       </c>
       <c r="C10" s="24"/>
@@ -5167,7 +5167,7 @@
         <v>0.45</v>
       </c>
       <c r="B11" s="8">
-        <f>COUNTIF(Risikoübersicht!I:I,45%)</f>
+        <f>COUNTIF('2'!I:I,45%)</f>
         <v>1</v>
       </c>
       <c r="C11" s="24"/>
@@ -5188,7 +5188,7 @@
         <v>0.5</v>
       </c>
       <c r="B12" s="8">
-        <f>COUNTIF(Risikoübersicht!I:I,50%)</f>
+        <f>COUNTIF('2'!I:I,50%)</f>
         <v>0</v>
       </c>
       <c r="C12" s="24"/>
@@ -5209,7 +5209,7 @@
         <v>0.55000000000000004</v>
       </c>
       <c r="B13" s="8">
-        <f>COUNTIF(Risikoübersicht!I:I,55%)</f>
+        <f>COUNTIF('2'!I:I,55%)</f>
         <v>0</v>
       </c>
       <c r="C13" s="24"/>
@@ -5230,7 +5230,7 @@
         <v>0.6</v>
       </c>
       <c r="B14" s="8">
-        <f>COUNTIF(Risikoübersicht!I:I,60%)</f>
+        <f>COUNTIF('2'!I:I,60%)</f>
         <v>1</v>
       </c>
       <c r="C14" s="24"/>
@@ -5251,7 +5251,7 @@
         <v>0.65</v>
       </c>
       <c r="B15" s="8">
-        <f>COUNTIF(Risikoübersicht!I:I,65%)</f>
+        <f>COUNTIF('2'!I:I,65%)</f>
         <v>1</v>
       </c>
       <c r="C15" s="24"/>
@@ -5272,7 +5272,7 @@
         <v>0.7</v>
       </c>
       <c r="B16" s="8">
-        <f>COUNTIF(Risikoübersicht!I:I,70%)</f>
+        <f>COUNTIF('2'!I:I,70%)</f>
         <v>0</v>
       </c>
       <c r="C16" s="24"/>
@@ -5293,7 +5293,7 @@
         <v>0.75</v>
       </c>
       <c r="B17" s="8">
-        <f>COUNTIF(Risikoübersicht!I:I,75%)</f>
+        <f>COUNTIF('2'!I:I,75%)</f>
         <v>1</v>
       </c>
       <c r="C17" s="24"/>
@@ -5314,7 +5314,7 @@
         <v>0.8</v>
       </c>
       <c r="B18" s="8">
-        <f>COUNTIF(Risikoübersicht!I:I,80%)</f>
+        <f>COUNTIF('2'!I:I,80%)</f>
         <v>0</v>
       </c>
       <c r="C18" s="24"/>
@@ -5335,7 +5335,7 @@
         <v>0.85</v>
       </c>
       <c r="B19" s="8">
-        <f>COUNTIF(Risikoübersicht!I:I,85%)</f>
+        <f>COUNTIF('2'!I:I,85%)</f>
         <v>0</v>
       </c>
       <c r="C19" s="24"/>
@@ -5356,7 +5356,7 @@
         <v>0.9</v>
       </c>
       <c r="B20" s="8">
-        <f>COUNTIF(Risikoübersicht!I:I,90%)</f>
+        <f>COUNTIF('2'!I:I,90%)</f>
         <v>0</v>
       </c>
       <c r="C20" s="24"/>
@@ -5377,7 +5377,7 @@
         <v>0.95</v>
       </c>
       <c r="B21" s="8">
-        <f>COUNTIF(Risikoübersicht!I:I,95%)</f>
+        <f>COUNTIF('2'!I:I,95%)</f>
         <v>0</v>
       </c>
       <c r="C21" s="24"/>
@@ -5398,7 +5398,7 @@
         <v>1</v>
       </c>
       <c r="B22" s="9">
-        <f>COUNTIF(Risikoübersicht!I:I,100%)</f>
+        <f>COUNTIF('2'!I:I,100%)</f>
         <v>1</v>
       </c>
       <c r="C22" s="24"/>
